--- a/cypress/e2e/variables/envItem-Creation-from-Design-DEU000010500028.xlsx
+++ b/cypress/e2e/variables/envItem-Creation-from-Design-DEU000010500028.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t xml:space="preserve">Field Name</t>
   </si>
@@ -74,14 +74,126 @@
   </si>
   <si>
     <t xml:space="preserve">LWA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hv_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lv_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specifics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation_received_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation_received_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/design?status=Item%20Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.docker.localhost/app/design?status=Item%20Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qsgbcz_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qsgbcz_design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/print/Design/DTTHZ2N20240205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct material cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.184,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.969,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Selling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qsgbcz.lmnas.com/app/item?disabled=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTTHZ2N/1000/10,875/0/0/12/28/75/400/1,1/3/0/01/6/2/2,5/1395/9000/100/40/00/C2/E2/64/0/5/1/0/1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct materail cost item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rating kva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -155,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,6 +277,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,13 +301,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.27"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -321,10 +440,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="login" display="https://qsgbcz.lmnas.com/login#login"/>
     <hyperlink ref="B3" r:id="rId2" display="https://qsgbcz.lmnas.com/app/design"/>
+    <hyperlink ref="B20" r:id="rId3" display="https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received"/>
+    <hyperlink ref="B21" r:id="rId4" display="https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received"/>
+    <hyperlink ref="B22" r:id="rId5" display="https://qsgbcz.docker.localhost/app/design?status=Item%20Created"/>
+    <hyperlink ref="B23" r:id="rId6" display="https://qsgbcz.docker.localhost/app/design?status=Item%20Updated"/>
+    <hyperlink ref="B24" r:id="rId7" location="login" display="https://qsgbcz.lmnas.com/login#login"/>
+    <hyperlink ref="B25" r:id="rId8" display="https://qsgbcz.lmnas.com/app/print/Design/DTTHZ2N20240205"/>
+    <hyperlink ref="B31" r:id="rId9" display="https://qsgbcz.lmnas.com/app/item?disabled=0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cypress/e2e/variables/envItem-Creation-from-Design-DEU000010500028.xlsx
+++ b/cypress/e2e/variables/envItem-Creation-from-Design-DEU000010500028.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t xml:space="preserve">Field Name</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalcost before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.942,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalcost after recalculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.438,50</t>
   </si>
 </sst>
 </file>
@@ -301,13 +313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.27"/>
   </cols>
@@ -603,6 +615,22 @@
       </c>
       <c r="B37" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
